--- a/biology/Médecine/Butylscopolamine/Butylscopolamine.xlsx
+++ b/biology/Médecine/Butylscopolamine/Butylscopolamine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La butylhyoscine ou butylscopolamine est un anticholinergique utilisé en cas de douleurs spastiques, par exemple dans le syndrome du côlon irritable.
@@ -513,7 +525,9 @@
           <t>Contre-indications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Hypertrophie bénigne de la prostate (risque de rétention urinaire).
 Glaucome à angle fermé (risque d'augmentation de la pression intra-oculaire).
@@ -546,7 +560,9 @@
           <t>Effets indésirables</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Manifestations anticholinergiques (sécheresse de la bouche, palpitations, constipation et troubles de l'accommodation), déjà aux doses thérapeutiques.
 Troubles cognitifs, surtout chez les personnes âgées.</t>
@@ -577,7 +593,9 @@
           <t>Composés proches</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>La scopolamine, composé proche mais avec le groupe butyle en moins. En Belgique, on a signalé des accidents mortels dans des préparations magistrales, à cause d'une confusion entre les deux noms [réf. nécessaire]. La scopolamine utilisée aux mêmes doses que la butylscopolamine s'avère hautement toxique.</t>
         </is>
@@ -607,9 +625,11 @@
           <t>Divers</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La butylscopolamine fait partie[Où ?] de la liste des médicaments essentiels de l'Organisation mondiale de la santé (liste mise à jour en avril 2013)[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La butylscopolamine fait partie[Où ?] de la liste des médicaments essentiels de l'Organisation mondiale de la santé (liste mise à jour en avril 2013).
 </t>
         </is>
       </c>
